--- a/DATA/tomato-clean.xlsx
+++ b/DATA/tomato-clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\OneDrive\Documentos\ProjectTomatodata\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75992FD3-E5D9-4D29-B875-35CE76818ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6941F53B-A0D9-44A5-9395-17B88FE58DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="39">
   <si>
     <t>Treatment</t>
   </si>
@@ -95,9 +95,6 @@
     <t>MDA</t>
   </si>
   <si>
-    <t>Superoxide anion</t>
-  </si>
-  <si>
     <t>Phenols</t>
   </si>
   <si>
@@ -138,6 +135,12 @@
   </si>
   <si>
     <t>Root dry weight</t>
+  </si>
+  <si>
+    <t>Superoxide</t>
+  </si>
+  <si>
+    <t>Samples</t>
   </si>
 </sst>
 </file>
@@ -11058,15 +11061,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O126"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -11074,46 +11080,49 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>45</v>
       </c>
@@ -11124,43 +11133,46 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>1.7018340000000001</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>48.931612903225798</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.804142387785669</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6.5306839999999999</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>618.90192000000002</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4.1195379999999986</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9.4085615999999987</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3.124304</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>12.532865599999999</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>8.2938880000000008</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>416.37527999999992</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>84.535897625199965</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>45</v>
       </c>
@@ -11171,43 +11183,46 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>1.821142</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>44.841806451612889</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2.9706752186307188</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>6.5131987999999996</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>666.20432000000005</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5.544858999999998</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>8.0343376000000006</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>4.2705120000000001</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>12.304849600000001</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.7817600000000009</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>456.28811999999999</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>38.759982773471137</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>45</v>
       </c>
@@ -11218,43 +11233,46 @@
         <v>3</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>1.872274</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>46.59458064516128</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.958780016427502</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>6.6793081999999986</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>726.51487999999995</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5.3154969999999979</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>8.6397784000000009</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2.070095999999999</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>10.7098744</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>6.8049920000000004</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>407.90892000000002</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>62.907739633321029</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>45</v>
       </c>
@@ -11265,43 +11283,46 @@
         <v>4</v>
       </c>
       <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
         <v>1.105294</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>43.381161290322581</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.958780016427502</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5.6913943999999992</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>843.58831999999995</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5.9216679999999986</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>5.5029452000000001</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.0636239999999999</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>6.5665692</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4.6015040000000003</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>424.84163999999998</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>41.144535498954113</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>45</v>
       </c>
@@ -11312,43 +11333,46 @@
         <v>5</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <v>1.1393819999999999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>37.100387096774199</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2.8993040054114121</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>7.4748847999999999</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>857.77904000000012</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4.9059219999999968</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>7.6613851999999998</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1.397464</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>9.0588491999999992</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>6.7172800000000006</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>441.77436000000012</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>57.700969607481248</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>45</v>
       </c>
@@ -11356,46 +11380,49 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>1.752966</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>58.864000000000033</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3.6130161376044829</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6.9678139999999997</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>605.89376000000004</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5.1680499999999983</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>9.146083599999999</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1.9247120000000011</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>11.0707956</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>6.9983039999999992</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>440.56488000000002</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>63.751150486034213</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>45</v>
       </c>
@@ -11403,46 +11430,49 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>2.9119579999999998</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>61.931354838709673</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3.9698722037010188</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>6.7055359999999986</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>682.76016000000004</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5.2499650000000004</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>10.393591199999999</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2.1336799999999991</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>12.527271199999999</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>8.0607679999999995</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>450.24072000000001</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>72.693855051064361</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>45</v>
       </c>
@@ -11450,46 +11480,49 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>2.7756059999999998</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>25.853419354838739</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3.5654353287916121</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5.9711575999999997</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>525.4796799999998</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>5.7086889999999979</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>9.9530799999999999</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2.014208</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>11.967288</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>7.7263680000000008</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>430.88904000000002</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>70.027129322013053</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>45</v>
       </c>
@@ -11497,46 +11530,49 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2.6051660000000001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>46.302451612903234</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3.5773305309948289</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>5.6214535999999997</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>691.03807999999992</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4.250601999999998</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>10.87256</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2.4073279999999988</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>13.279888</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>8.024160000000002</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>430.88904000000002</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>74.215073212747626</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>45</v>
       </c>
@@ -11544,46 +11580,49 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
         <v>1.3950419999999999</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>53.167483870967708</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3.6011209354012661</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>6.2684059999999979</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>715.87184000000002</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4.5782619999999969</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>9.9699751999999986</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2.2032639999999999</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>12.173239199999999</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>7.5287040000000012</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>478.05875999999989</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>69.299146056355355</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>45</v>
       </c>
@@ -11591,46 +11630,49 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>1.8893180000000001</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>56.673032258064538</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>5.3854012658839432</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5.6564239999999986</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>439.1527999999999</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>5.9871999999999987</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4.3128440000000001</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.59950400000000015</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>4.9123480000000006</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>4.4814080000000001</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>410.32787999999999</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>36.619495508797833</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>45</v>
       </c>
@@ -11638,46 +11680,49 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
         <v>1.5995699999999999</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>67.773935483870972</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4.4218898874232986</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>6.1197817999999993</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>524.29711999999995</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>5.8561359999999976</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4.0870099999999994</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.56940000000000013</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>4.6564099999999993</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>4.1650560000000008</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>410.32787999999999</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>34.09349329395841</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>45</v>
       </c>
@@ -11685,46 +11730,49 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
         <v>1.7870539999999999</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>99.469935483870955</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4.7787459535198344</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5.9711575999999997</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>387.12015999999988</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>5.0042199999999983</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5.3721040000000002</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.80772799999999956</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>6.1798319999999993</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>5.6328639999999996</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>453.86916000000002</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>45.796773717238842</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>45</v>
       </c>
@@ -11732,46 +11780,49 @@
         <v>10</v>
       </c>
       <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.2757339999999999</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>47.617032258064498</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>5.2426588394453297</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5.1755810000000002</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>505.37616000000003</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>5.2991139999999968</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>4.7417628000000001</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.71583200000000013</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>5.4575947999999999</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>4.8786559999999994</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>430.88904000000002</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>39.898363479758842</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>45</v>
       </c>
@@ -11779,46 +11830,49 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
         <v>2.4688140000000001</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>49.077677419354821</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4.7192699425037441</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>6.0410983999999983</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>441.51791999999989</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5.2499649999999969</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>5.2294347999999999</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.83372000000000002</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>6.0631548000000004</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>5.1577919999999997</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>449.03124000000003</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>43.302054878799069</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>45</v>
       </c>
@@ -11826,46 +11880,49 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>1.821142</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>66.167225806451626</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4.5884227182683484</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3.8729336000000001</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>427.32719999999989</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>6.8554989999999982</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>5.8545220000000011</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2.2131120000000002</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>8.0676340000000017</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2.8329279999999999</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>417.58476000000002</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>33.583462532299748</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>45</v>
       </c>
@@ -11873,46 +11930,49 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
         <v>3.1164860000000001</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>59.448258064516118</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>4.5527371116586961</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>3.7155667999999999</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>436.78768000000002</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>4.4635809999999987</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>6.2524151999999997</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1.199808</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>7.4522231999999997</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>5.3111679999999986</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>458.70708000000008</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>46.301540543866118</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>45</v>
       </c>
@@ -11920,46 +11980,49 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
         <v>2.9971779999999999</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>38.561032258064522</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4.6597939314876546</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>4.0040725999999998</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>380.02480000000003</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>5.544858999999998</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>6.1948888000000002</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1.2464959999999989</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>7.4413847999999998</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>5.1101440000000009</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>470.80187999999998</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>45.173791066814339</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>45</v>
       </c>
@@ -11967,46 +12030,49 @@
         <v>8</v>
       </c>
       <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>2.571078</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>58.571870967741951</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>5.3854012658839432</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>4.0652708000000004</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>543.21807999999999</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5.4957099999999981</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>6.3471723999999998</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1.2590479999999999</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>7.6062203999999998</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>5.177471999999999</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>464.75448</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>47.244171280915481</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>45</v>
       </c>
@@ -12014,46 +12080,49 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
         <v>2.2642859999999998</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>60.470709677419343</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>5.504353287916123</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>3.6193982</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>583.42511999999999</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4.7257089999999984</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>6.1622496000000009</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1.479616</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>7.6418656000000009</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>4.6100479999999999</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>421.21319999999997</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>43.105889011935531</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>45</v>
       </c>
@@ -12061,46 +12130,49 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>2.0768019999999998</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>91.144258064516137</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>4.2791474609846816</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>6.7055359999999986</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>816.38943999999981</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>6.1510299999999987</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>7.7086660000000009</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1.604344</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>9.3130100000000002</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>6.2724479999999998</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>451.4502</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>56.617925433739373</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>45</v>
       </c>
@@ -12108,46 +12180,49 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
         <v>3.1505740000000002</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>76.391741935483836</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3.5059593177755231</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>7.2912901999999988</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>687.49039999999991</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>5.2827309999999983</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>6.3027807999999999</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>1.2110719999999999</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>7.5138528000000004</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>5.4114880000000003</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>413.95631999999989</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>47.089922480620153</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>45</v>
       </c>
@@ -12155,46 +12230,49 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
         <v>2.6903860000000002</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>56.234838709677433</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3.957977001497802</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>6.3995449999999998</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>672.11711999999989</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>5.4465609999999982</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>5.7518083999999989</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1.524024</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>7.2758323999999988</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>5.3150399999999998</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>479.26823999999999</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>50.160853943644639</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>45</v>
       </c>
@@ -12202,46 +12280,49 @@
         <v>6</v>
       </c>
       <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>2.162021999999999</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>61.639225806451641</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3.5773305309948289</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>7.4748847999999999</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>726.51487999999995</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>4.3816659999999983</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>5.7715883999999997</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1.170024</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>6.9416124000000003</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>4.7780479999999992</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>473.22084000000001</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>42.723570813338263</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>45</v>
       </c>
@@ -12249,46 +12330,49 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
         <v>1.9234059999999999</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>53.605677419354812</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4.0412434169203264</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>6.0673261999999992</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>545.58320000000003</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>5.2335819999999966</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>6.9400472000000013</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1.5300480000000001</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>8.4700952000000012</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>5.0469439999999999</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>380.09088000000003</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>49.892932201304291</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>60</v>
       </c>
@@ -12296,46 +12380,49 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>0.83259000000000005</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>63.392000000000017</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3.1728936560854222</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>4.9395307999999991</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>966.57456000000013</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5.2335819999999966</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>6.5856300000000001</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1.6950639999999999</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>8.2806940000000004</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>4.1116159999999997</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>389.76671999999991</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>39.03853574504739</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>60</v>
       </c>
@@ -12343,46 +12430,49 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
         <v>0.52579799999999999</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>68.942451612903213</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>3.2918456781176011</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>6.7230211999999998</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1030.4328</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>4.8403899999999984</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>7.0740932000000001</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1.7987919999999999</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>8.8728852000000007</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>4.3662400000000003</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>382.50984</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>40.972838685861937</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>60</v>
       </c>
@@ -12390,46 +12480,49 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
         <v>0.49170999999999998</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>46.448516129032249</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>3.018256027443591</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>4.5810842000000003</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>967.75711999999987</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>4.4799639999999981</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>7.9083503999999998</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2.0322400000000012</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>9.9405904000000014</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>4.9448959999999991</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>381.30036000000013</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>46.176717115786872</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>60</v>
       </c>
@@ -12437,46 +12530,49 @@
         <v>7</v>
       </c>
       <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
         <v>4</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.57692999999999994</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>25.56129032258065</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>3.2442648693047298</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>4.8958177999999988</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>705.22879999999998</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>4.5782619999999969</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>7.9723264</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>2.0807359999999999</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>10.0530624</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>4.9467520000000018</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>390.97619999999989</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>47.550190722283759</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>60</v>
       </c>
@@ -12484,46 +12580,49 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
         <v>0.61101799999999995</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>29.79716129032256</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2.8636183988017589</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>5.0182141999999992</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>938.19312000000002</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>5.1680499999999983</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>7.7432475999999992</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.968296</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>9.7115435999999988</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>4.9068480000000001</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>542.16120000000001</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>47.114598252737792</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>60</v>
       </c>
@@ -12531,46 +12630,49 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>2.5029020000000002</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>94.795870967741934</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>3.957977001497802</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>3.0336439999999998</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>890.89071999999999</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>4.7420919999999969</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>11.790106400000001</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>3.6072959999999998</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>15.397402400000001</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>6.0642240000000003</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>532.48536000000001</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>70.841734957548923</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>60</v>
       </c>
@@ -12578,46 +12680,49 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
         <v>1.7870539999999999</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>59.740387096774207</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3.8866057882784939</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>6.0673261999999992</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>896.80351999999993</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>5.430177999999998</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>13.1792164</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>4.0199759999999998</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>17.199192400000001</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>6.7948480000000018</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>453.86916000000002</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>79.858053402239463</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>60</v>
       </c>
@@ -12625,46 +12730,49 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
         <v>1.0712060000000001</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>66.897548387096776</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>3.708177755230226</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>5.2717495999999997</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>720.60208</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>5.6431569999999978</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>14.037529599999999</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>4.3845280000000004</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>18.422057599999999</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>7.1114560000000004</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>545.78964000000008</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>84.666605143349358</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>60</v>
       </c>
@@ -12672,46 +12780,49 @@
         <v>9</v>
       </c>
       <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35">
         <v>4</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1.17347</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>48.785548387096767</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>4.0769290235299804</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>3.5581999999999998</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>722.96719999999993</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>5.3646459999999978</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>12.870613199999999</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>3.9266960000000002</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>16.797309200000001</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>6.1974079999999976</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>538.53275999999994</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>76.130481112341599</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>60</v>
       </c>
@@ -12719,46 +12830,49 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
         <v>0.49170999999999998</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>49.51587096774194</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>4.0293482147171087</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>5.8050481999999999</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>765.5393600000001</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>4.8403899999999984</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>16.993711600000001</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>5.394712000000002</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>22.388423599999999</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>8.2658559999999994</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>442.98383999999999</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>100.80757967269599</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>60</v>
       </c>
@@ -12766,46 +12880,49 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>1.3439099999999999</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>75.661419354838728</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>4.4575754940329517</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>2.3342360000000002</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>505.37616000000003</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>5.1189009999999984</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>3.6147307999999989</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.80786399999999992</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>4.4225947999999988</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>2.3799360000000012</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>470.80187999999998</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>302.91397317583358</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>60</v>
       </c>
@@ -12813,46 +12930,49 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
         <v>0.49170999999999998</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>59.594322580645191</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>4.1007194279364167</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>2.5265732000000001</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>482.90751999999992</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>4.8895389999999974</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>5.2396447999999998</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>1.2126239999999999</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>6.4522687999999997</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>3.242432</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>478.05875999999989</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>29.526432878060788</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>60</v>
       </c>
@@ -12860,46 +12980,49 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
         <v>0.66215000000000002</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>35.785806451612928</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>4.3980994830168623</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>2.5615435999999998</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>511.28895999999997</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>5.3154969999999979</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>6.1918440000000006</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>1.5115999999999989</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>7.7034440000000002</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>3.8795520000000012</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>452.65967999999998</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>36.28487756859851</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>60</v>
       </c>
@@ -12907,46 +13030,49 @@
         <v>10</v>
       </c>
       <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
         <v>4</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.66215000000000002</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>56.088774193548403</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>3.684387350823791</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>3.1647829999999999</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>453.34352000000001</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>5.3974119999999983</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>6.771463999999999</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>1.6688000000000001</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>8.4402639999999991</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>4.3769920000000004</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>453.86916000000002</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>40.088438538205978</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>60</v>
       </c>
@@ -12954,46 +13080,49 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
         <v>0.49170999999999998</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>61.347096774193538</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>3.4464833067594332</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>4.7734214000000001</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>521.93200000000002</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>5.2827309999999983</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>6.6179536000000008</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>1.6080000000000001</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>8.2259536000000004</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>4.1145535999999998</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>488.94407999999999</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>38.673687215454663</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>60</v>
       </c>
@@ -13001,46 +13130,49 @@
         <v>8</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>1.224602</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>109.1101935483871</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>4.3980994830168623</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>4.1264689999999993</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>565.68671999999992</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>6.4295410000000004</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>12.657322799999999</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>4.1635279999999986</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>16.820850799999999</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>6.8421120000000011</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>475.63979999999998</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>72.330121816168329</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>60</v>
       </c>
@@ -13048,46 +13180,49 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
         <v>1.037118</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>81.357935483870961</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>3.8747105860752771</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>4.0565281999999998</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>579.87743999999998</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>5.6103909999999981</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>16.522934800000002</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>5.4658800000000003</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>21.9888148</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>8.7664000000000009</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>485.31564000000009</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>94.175508797834382</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>60</v>
       </c>
@@ -13095,46 +13230,49 @@
         <v>8</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
         <v>0.76441399999999993</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>46.010322580645159</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>3.3989024979465619</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>3.9865873999999999</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>533.75760000000002</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>5.7578379999999987</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>20.836970000000001</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>6.7461040000000017</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>27.583074</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>10.969536</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>478.05875999999989</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>118.99136950904391</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>60</v>
       </c>
@@ -13142,46 +13280,49 @@
         <v>8</v>
       </c>
       <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>1.105294</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>47.178838709677407</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>3.6130161376044829</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>4.1789245999999993</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>745.43583999999998</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>5.8397529999999991</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>15.0849616</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>4.8746400000000003</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>19.959601599999999</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>8.1022719999999993</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>507.08627999999999</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>86.33618801525779</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>60</v>
       </c>
@@ -13189,46 +13330,49 @@
         <v>8</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
         <v>0.93485400000000007</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>64.706580645161281</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>3.4702737111658699</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>4.913303</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>669.75199999999995</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>4.9059219999999968</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>13.7591164</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>4.6635920000000004</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>18.422708400000001</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>7.1778879999999994</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>464.75448</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>78.20870924080225</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>60</v>
       </c>
@@ -13236,46 +13380,49 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
         <v>0.52579799999999999</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>51.268645161290308</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>3.07773203845968</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>4.0827559999999998</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>674.48223999999982</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>5.4137949999999977</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>14.080734400000001</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>4.4537439999999986</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>18.534478400000001</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>7.3575999999999997</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>476.84928000000002</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>82.360103359173138</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>60</v>
       </c>
@@ -13283,46 +13430,49 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
         <v>0.78145799999999999</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>36.516129032258057</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>3.1253128472725509</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>4.5111433999999999</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>612.98911999999996</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>5.3318799999999982</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>20.02827120000001</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>6.4764639999999982</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>26.50473520000001</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>10.523135999999999</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>668.6728079999998</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>120.2056379968008</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>60</v>
       </c>
@@ -13330,46 +13480,49 @@
         <v>6</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
         <v>0.6280619999999999</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>50.100129032258053</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>3.0063608252403728</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>4.3800043999999998</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>608.25887999999986</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>4.9223049999999979</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>13.435435999999999</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>4.0679040000000004</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>17.503340000000001</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>7.309056</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>476.84928000000002</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>79.20657561215701</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>60</v>
       </c>
@@ -13377,46 +13530,49 @@
         <v>6</v>
       </c>
       <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50">
         <v>4</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.49170999999999998</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>48.055225806451581</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>3.2442648693047298</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>5.2630069999999991</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>616.53679999999997</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>4.9714539999999969</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>19.782314800000002</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>8.9828080000000003</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>28.7651228</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>5.5116799999999984</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>456.28811999999999</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>94.48710717361881</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>60</v>
       </c>
@@ -13424,46 +13580,49 @@
         <v>6</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
         <v>0.6280619999999999</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>53.021419354838713</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>3.0063608252403728</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>4.4936581999999996</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>635.45776000000001</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>5.5776249999999976</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>13.1854304</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>4.4001919999999997</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>17.585622399999998</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>6.4951040000000022</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>24.382811999999991</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>73.833478528362264</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>75</v>
       </c>
@@ -13471,46 +13630,49 @@
         <v>7</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
         <v>0.45762199999999997</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>62.077419354838703</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>3.315636082524037</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>6.1984651999999993</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>814.02431999999999</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>5.5940079999999979</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>20.977981199999999</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>7.3114160000000004</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>28.2893972</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>9.9067839999999983</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>634.08167999999989</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>126.6145957918051</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>75</v>
       </c>
@@ -13518,46 +13680,49 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
         <v>0.49170999999999998</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>51.706838709677399</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>3.1253128472725509</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>6.8191897999999993</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>903.89887999999985</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>5.6267739999999966</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>19.415180800000002</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>6.4970559999999988</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>25.912236799999999</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>9.617151999999999</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>601.42572000000007</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>122.1364291866618</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>75</v>
       </c>
@@ -13565,46 +13730,49 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
         <v>0.57692999999999994</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>84.133161290322604</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>3.2442648693047298</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>7.3350031999999983</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>1006.7816</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>4.4144319999999997</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>22.754347599999999</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>7.6734</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>30.4277476</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>11.419904000000001</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>596.5877999999999</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>139.4723661867848</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>75</v>
       </c>
@@ -13612,46 +13780,49 @@
         <v>7</v>
       </c>
       <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55">
         <v>4</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>0.45762199999999997</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>80.773677419354826</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>3.2918456781176011</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>7.1863789999999987</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>1086.0131200000001</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>4.8895389999999974</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>22.690411600000001</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>7.6943919999999988</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>30.384803600000009</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>11.275615999999999</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>608.68259999999998</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>141.0624486280301</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>75</v>
       </c>
@@ -13659,46 +13830,49 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
         <v>0.45762199999999997</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>75.077161290322579</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>3.1134176450693332</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>6.2246929999999976</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>897.9860799999999</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>4.8731559999999972</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>13.372299999999999</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>5.4786559999999991</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>18.850956</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>6.1861119999999969</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>469.5924</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>179.56679217423411</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>75</v>
       </c>
@@ -13706,46 +13880,49 @@
         <v>9</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
         <v>0.90076600000000007</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>70.257032258064484</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>2.9706752186307188</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>5.8924742000000014</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>538.48784000000001</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>5.3810289999999981</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>13.372299999999999</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>5.4786559999999991</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>18.850956</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>8.2903040000000008</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>442.98383999999999</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>78.404464131906025</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>75</v>
       </c>
@@ -13753,46 +13930,49 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
         <v>0.91781000000000013</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>72.009806451612917</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>2.8160375899888872</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>6.2246929999999976</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>604.71119999999996</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>5.2991139999999968</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>17.452433599999999</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>7.2943840000000018</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>24.7468176</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>10.664864</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>568.76976000000002</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>103.01094376768791</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>75</v>
       </c>
@@ -13800,46 +13980,49 @@
         <v>9</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
         <v>0.71328199999999997</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>75.953548387096745</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>3.2442648693047298</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>6.8191897999999993</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>602.34607999999992</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>5.659539999999998</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>25.851554</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>11.354775999999999</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>37.206329999999987</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>18.339168000000001</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>709.06943999999987</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>239.7745539559493</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>75</v>
       </c>
@@ -13847,46 +14030,49 @@
         <v>9</v>
       </c>
       <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60">
         <v>4</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>0.55988600000000011</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>31.549935483870961</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>3.3989024979465619</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>7.1688937999999984</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>708.77648000000011</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>5.7086889999999979</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>15.2025168</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>6.3511680000000004</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>21.553684799999999</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>8.8527039999999992</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>346.22543999999999</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>84.602803002337907</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>75</v>
       </c>
@@ -13894,46 +14080,49 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
         <v>0.593974</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>61.347096774193517</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>3.2323696671015121</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>5.5165423999999996</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>720.60208</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>5.9380509999999989</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>20.972055999999998</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>8.8215360000000018</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>29.793592</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>12.158111999999999</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>346.22543999999999</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>116.4701193552356</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>75</v>
       </c>
@@ -13941,46 +14130,49 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
         <v>0.45762199999999997</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>100.6384516129032</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>2.6613999613470551</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>5.3679181999999992</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>601.16351999999983</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>5.9216679999999986</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>12.8073216</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>5.761455999999999</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>18.568777600000001</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>4.0827199999999992</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>305.10311999999999</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>65.159936015749992</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>75</v>
       </c>
@@ -13988,46 +14180,49 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
         <v>0.76441399999999993</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>69.964903225806452</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>2.8398279943953231</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>3.9079039999999998</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>750.16608000000008</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>5.3646459999999978</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>11.4799252</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>4.2442960000000003</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>15.724221200000001</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>5.3801600000000009</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>272.44716</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>67.57484434600714</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>75</v>
       </c>
@@ -14035,46 +14230,49 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
         <v>0.37240200000000001</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>52.87535483870969</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>2.7922471855824522</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>2.6402269999999999</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>745.43583999999998</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>4.9059219999999968</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>12.5487596</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>4.421576</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>16.970335599999999</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>6.2103679999999999</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>227.69640000000001</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>75.56583241048358</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>75</v>
       </c>
@@ -14082,46 +14280,49 @@
         <v>10</v>
       </c>
       <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65">
         <v>4</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>0.45762199999999997</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>53.897806451612887</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>3.2918456781176011</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>4.1964097999999996</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>830.58015999999986</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>5.2335819999999966</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>18.2796412</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>6.3903279999999976</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>24.669969200000001</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>8.7209920000000025</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>286.96091999999999</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>109.5160206718346</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>75</v>
       </c>
@@ -14129,46 +14330,49 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
         <v>0.593974</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>31.111741935483849</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>3.375112093540126</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>4.8870752</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>745.43583999999998</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>5.8725189999999978</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>14.024368000000001</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>6.5155839999999996</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>20.539952</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>4.3088639999999989</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>263.98079999999987</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>72.557263442844857</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>75</v>
       </c>
@@ -14176,46 +14380,49 @@
         <v>8</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
         <v>1.1393819999999999</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>44.987870967741927</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>5.0285451997874073</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>2.8325642000000002</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>547.94831999999985</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>5.3482629999999984</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>17.533571599999998</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>5.9124719999999984</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>23.446043599999999</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>8.918368000000001</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>255.51444000000001</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>109.0179648086625</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>75</v>
       </c>
@@ -14223,46 +14430,49 @@
         <v>8</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
         <v>1.054162</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>96.548645161290338</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>4.2434618543750302</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>5.8400185999999996</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>609.44144000000006</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>5.3154969999999979</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>18.1123604</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>6.0143440000000004</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>24.126704400000001</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>9.2239679999999975</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>244.62912</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>114.67952996185559</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>75</v>
       </c>
@@ -14270,46 +14480,49 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
         <v>0.88372200000000001</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>40.898064516129033</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>4.4337850896265154</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>4.7734214000000001</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>666.20432000000005</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>5.1680499999999983</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>18.1123604</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>6.0143440000000004</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>24.126704400000001</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>9.907391999999998</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>305.10311999999999</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>117.9045035068291</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>75</v>
       </c>
@@ -14317,46 +14530,49 @@
         <v>8</v>
       </c>
       <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70">
         <v>4</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>1.054162</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>54.482064516129007</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>4.4337850896265154</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>6.6181099999999988</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>766.72191999999995</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>5.1352839999999977</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>18.773127200000001</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>6.1935520000000013</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>24.966679200000002</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>8.7576640000000001</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>226.48692</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>111.56606127722409</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>75</v>
       </c>
@@ -14364,46 +14580,49 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
         <v>0.76441399999999993</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>63.68412903225807</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>4.3148330675943356</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>5.3329477999999986</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>822.30223999999998</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>5.8561359999999976</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>16.827226400000001</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>5.7065279999999996</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>22.533754399999999</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>8.5359999999999996</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>319.61687999999998</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>105.4777826996432</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>75</v>
       </c>
@@ -14411,46 +14630,49 @@
         <v>6</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
         <v>0.49170999999999998</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>75.515354838709683</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>3.6011209354012661</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>6.7667341999999993</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>954.74896000000001</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>4.9059219999999968</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>24.174678799999999</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>8.8611919999999991</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>33.035870799999998</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>11.842624000000001</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>250.67652000000001</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>142.14291374430911</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>75</v>
       </c>
@@ -14458,46 +14680,49 @@
         <v>6</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
         <v>0.52579799999999999</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>43.96541935483873</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>4.1958810455621576</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>5.8837315999999991</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>1009.14672</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>4.7748579999999974</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>21.789649199999999</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>7.8789359999999986</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>29.668585199999999</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>10.964703999999999</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>301.47467999999992</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>128.72214593330881</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>75</v>
       </c>
@@ -14505,46 +14730,49 @@
         <v>6</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
         <v>0.64510599999999996</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>47.470967741935439</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>3.4226929023529982</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>6.7579916000000004</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>721.78464000000008</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>4.6765599999999976</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>19.333482799999999</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>6.9061360000000001</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>26.239618799999999</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>9.2002560000000013</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>420.00371999999999</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>111.547065337763</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -14552,46 +14780,49 @@
         <v>6</v>
       </c>
       <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75">
         <v>4</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>0.42353400000000002</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>75.807483870967758</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>3.2442648693047298</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>6.9328436</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>827.03248000000008</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>4.8895389999999974</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>26.8410908</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>9.8622639999999997</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>36.7033548</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>13.602335999999999</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>493.78199999999998</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>161.4999827734712</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14599,46 +14830,49 @@
         <v>6</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
         <v>0.61101799999999995</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>82.3803870967742</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>3.4583785089626522</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>6.9241009999999994</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>761.99167999999997</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>4.2997509999999988</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>12.8326356</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>4.6063760000000018</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>17.439011600000001</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>6.7567039999999974</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>509.50524000000007</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>75.845421434723775</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>90</v>
       </c>
@@ -14646,46 +14880,49 @@
         <v>7</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
         <v>0.52579799999999999</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>76.391741935483878</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>3.315636082524037</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>8.3666299999999989</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>789.19056</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>5.4793269999999978</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>14.6015256</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>5.1723679999999996</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>19.773893600000001</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>6.7971199999999996</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>426.05112000000003</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>86.728726467331128</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>90</v>
       </c>
@@ -14693,46 +14930,49 @@
         <v>7</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
         <v>0.93485400000000007</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>67.773935483870972</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>3.3632168913369078</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>7.4049440000000004</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>899.1686400000001</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>4.807623999999997</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>17.499905600000002</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>6.4447840000000003</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>23.9446896</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>7.0259200000000028</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>491.36304000000001</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>99.870525409130096</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>90</v>
       </c>
@@ -14740,46 +14980,49 @@
         <v>7</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
         <v>0.55988600000000011</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>50.976516129032277</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>3.3632168913369078</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>8.1043520000000004</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>903.89887999999985</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>4.7912409999999968</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>16.928277600000001</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>6.2849599999999999</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>23.213237599999999</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>7.1725119999999993</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>527.64743999999996</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>98.229026701119722</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>90</v>
       </c>
@@ -14787,46 +15030,49 @@
         <v>7</v>
       </c>
       <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80">
         <v>4</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>0.40649000000000002</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>75.953548387096774</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>3.5059593177755231</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>8.2617187999999988</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>860.14415999999994</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>4.9386879999999982</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>15.851922399999999</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>5.5402399999999998</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>21.3921624</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>7.7159360000000019</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>496.20096000000001</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>94.232912513842749</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>90</v>
       </c>
@@ -14834,46 +15080,49 @@
         <v>7</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
         <v>0.79850199999999982</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>52.291096774193541</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>2.9111992076146298</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>8.3054317999999991</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>990.22576000000004</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>4.6437939999999971</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>17.654442800000002</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>6.2063919999999992</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>23.860834799999999</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>8.5316160000000014</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>507.08627999999999</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>108.1336680201797</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>90</v>
       </c>
@@ -14881,46 +15130,49 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
         <v>0.81554599999999999</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>74.200774193548398</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>2.9944656230371551</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>8.1043520000000004</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>764.35680000000002</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>5.5120929999999966</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>13.6689908</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>5.0128879999999976</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>18.6818788</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>6.3060480000000023</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>487.7346</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>80.233763996554714</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>90</v>
       </c>
@@ -14928,46 +15180,49 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
         <v>0.83259000000000005</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>28.044387096774201</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>2.9468848142242838</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>8.6026802</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>821.11968000000002</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>4.7257089999999984</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>18.1426704</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>6.5951519999999997</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>24.737822399999999</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>7.3205120000000008</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>568.76976000000002</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>101.45575489110369</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>90</v>
       </c>
@@ -14975,46 +15230,49 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
         <v>0.66215000000000002</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>83.256774193548367</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>3.0063608252403728</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>7.9819556</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>845.95344000000011</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>4.692942999999997</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>23.117947999999998</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>8.1864800000000013</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>31.304428000000001</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>10.618111999999989</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>514.34316000000001</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>134.57543743078631</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>90</v>
       </c>
@@ -15022,46 +15280,49 @@
         <v>9</v>
       </c>
       <c r="C85">
+        <v>84</v>
+      </c>
+      <c r="D85">
         <v>4</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>0.49170999999999998</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>41.628387096774183</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>3.0063608252403728</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>4.2925784</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>981.94783999999993</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>4.7093259999999972</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>19.297518799999999</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>6.9179440000000003</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>26.215462800000001</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>9.1308479999999967</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>574.81715999999994</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>115.0750633690169</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>90</v>
       </c>
@@ -15069,46 +15330,49 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
         <v>0.64510599999999996</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>52.729290322580653</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>2.9468848142242838</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>8.3578873999999992</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>966.57456000000013</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>5.1352839999999977</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>18.823061599999999</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>6.844368000000002</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>25.667429599999998</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>8.370175999999999</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>507.08627999999999</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>109.8689134982158</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>90</v>
       </c>
@@ -15116,46 +15380,49 @@
         <v>10</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
         <v>0.47466599999999998</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>78.290580645161299</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>4.136405034546069</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>3.645626</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>550.31344000000001</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>4.7912409999999968</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>6.9935064000000002</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>2.7496160000000009</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>9.7431224000000007</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>2.7518400000000001</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>374.04347999999999</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <v>38.373636028054626</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>90</v>
       </c>
@@ -15163,46 +15430,49 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
         <v>0.38944600000000001</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>72.886193548387112</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>4.1126146301396336</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>3.6019129999999988</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>743.07072000000005</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>4.365282999999998</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>11.214206799999999</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>3.6643279999999989</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>14.878534800000001</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>5.6998399999999982</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>365.57711999999998</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <v>67.838740002460938</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>90</v>
       </c>
@@ -15210,46 +15480,49 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
         <v>0.45762199999999997</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>70.841290322580633</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>4.1483002367492876</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>5.8575037999999999</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>661.47408000000019</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>4.7093259999999972</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>12.3974628</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>4.0403439999999993</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>16.437806800000001</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>6.4612480000000012</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>423.63216000000011</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <v>75.229459825273793</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -15257,46 +15530,49 @@
         <v>10</v>
       </c>
       <c r="C90">
+        <v>89</v>
+      </c>
+      <c r="D90">
         <v>4</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>0.52579799999999999</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>52.291096774193541</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>3.957977001497802</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>5.7525925999999989</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>646.10080000000016</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>4.3816659999999983</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>10.698482800000001</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>3.416647999999999</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>14.115130799999999</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>6.4128320000000016</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>424.84163999999998</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <v>69.980462655346386</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -15304,46 +15580,49 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
         <v>0.6280619999999999</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>105.60464516129031</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>3.7914441706527522</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>5.2804921999999994</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>694.58575999999994</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>5.266347999999998</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>9.6542199999999987</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>3.5718559999999999</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>13.226076000000001</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>4.3941119999999971</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>432.09852000000001</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>57.668241663590507</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -15351,46 +15630,49 @@
         <v>8</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
         <v>0.78145799999999999</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>79.313032258064524</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>4.3148330675943356</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>6.0410983999999983</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>525.4796799999998</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>5.4629439999999976</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>14.218776399999999</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>4.7211759999999998</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>18.939952399999999</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>7.0206400000000002</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>455.07864000000001</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>88.423706164636414</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>90</v>
       </c>
@@ -15398,46 +15680,49 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
         <v>0.83259000000000005</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>50.538322580645172</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>4.4575754940329517</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>5.8225333999999993</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>611.80655999999999</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>4.7420919999999969</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>13.343688</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>4.3760319999999986</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>17.719719999999999</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <v>6.5052800000000008</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>434.51747999999998</v>
       </c>
-      <c r="O93">
+      <c r="P93">
         <v>82.292993724621653</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>90</v>
       </c>
@@ -15445,46 +15730,49 @@
         <v>8</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
         <v>0.93485400000000007</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>40.75200000000001</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>4.1958810455621576</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>5.2630069999999991</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>612.98911999999996</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>4.9550709999999967</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>15.8349472</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>5.2122080000000004</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>21.047155199999999</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>7.7242240000000022</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>386.13828000000001</v>
       </c>
-      <c r="O94">
+      <c r="P94">
         <v>97.904525655223324</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>90</v>
       </c>
@@ -15492,46 +15780,49 @@
         <v>8</v>
       </c>
       <c r="C95">
+        <v>94</v>
+      </c>
+      <c r="D95">
         <v>4</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>0.81554599999999999</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>46.59458064516128</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>4.3862042808136454</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>5.0269567999999998</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>652.01360000000011</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>5.8233699999999988</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>13.793418000000001</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>4.5411279999999996</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>18.334546</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>6.8102719999999994</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>416.37527999999992</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>85.281328903654483</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>90</v>
       </c>
@@ -15539,46 +15830,49 @@
         <v>8</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96">
         <v>0.83259000000000005</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>49.223741935483872</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>4.1601954389525053</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>4.9307881999999994</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>721.78464000000008</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>3.8410269999999982</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>16.342599199999999</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>5.3235359999999989</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>21.666135199999999</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>8.0049600000000005</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>446.61228</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>101.2143669250646</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>90</v>
       </c>
@@ -15586,46 +15880,49 @@
         <v>6</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
         <v>0.38944600000000001</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>57.257290322580623</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>3.2799504759143838</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>6.0935539999999984</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>785.6428800000001</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>5.6267739999999966</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>8.9672192000000006</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>2.9495040000000001</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>11.9167232</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>9.2774719999999995</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <v>473.22084000000001</v>
       </c>
-      <c r="O97">
+      <c r="P97">
         <v>53.066282761166477</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>90</v>
       </c>
@@ -15633,46 +15930,49 @@
         <v>6</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
         <v>0.64510599999999996</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>85.739870967741936</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>2.9706752186307188</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>6.128524399999999</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>955.93152000000009</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>4.3161339999999981</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>19.690469199999999</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>6.3441199999999984</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>26.034589199999999</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <v>9.1696960000000018</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>438.14591999999988</v>
       </c>
-      <c r="O98">
+      <c r="P98">
         <v>116.32794635166729</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>90</v>
       </c>
@@ -15680,46 +15980,49 @@
         <v>6</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
         <v>0.6280619999999999</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>98.009290322580654</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>2.9706752186307188</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>6.3033764000000003</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>753.71376000000009</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>4.3325169999999984</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>13.7798076</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>4.5038959999999992</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>18.283703599999999</v>
       </c>
-      <c r="M99">
+      <c r="N99">
         <v>6.7303360000000021</v>
       </c>
-      <c r="N99">
+      <c r="O99">
         <v>435.72696000000008</v>
       </c>
-      <c r="O99">
+      <c r="P99">
         <v>82.768541897379123</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>90</v>
       </c>
@@ -15727,46 +16030,49 @@
         <v>6</v>
       </c>
       <c r="C100">
+        <v>99</v>
+      </c>
+      <c r="D100">
         <v>4</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>0.61101799999999995</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>91.582451612903242</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>2.8755136010049762</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>6.1897225999999987</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>805.74640000000011</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>6.1510299999999987</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>16.509324400000001</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>5.4286479999999981</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>21.9379724</v>
       </c>
-      <c r="M100">
+      <c r="N100">
         <v>8.5342079999999996</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <v>465.96395999999999</v>
       </c>
-      <c r="O100">
+      <c r="P100">
         <v>115.21299864648699</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>90</v>
       </c>
@@ -15774,46 +16080,49 @@
         <v>6</v>
       </c>
       <c r="C101">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
         <v>0.64510599999999996</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>82.67251612903226</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>3.2442648693047298</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>7.0552400000000004</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>734.79279999999994</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>5.3318799999999982</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>17.395294</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <v>5.9300720000000009</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>23.325365999999999</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <v>8.2712319999999995</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <v>436.93643999999989</v>
       </c>
-      <c r="O101">
+      <c r="P101">
         <v>104.6674098683401</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>105</v>
       </c>
@@ -15821,46 +16130,49 @@
         <v>7</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
         <v>0.88372200000000001</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>58.571870967741923</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>3.101522442866115</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>7.2912901999999988</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>559.77392000000009</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>4.9550709999999967</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>11.0933756</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>3.439896000000001</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>14.533271600000001</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <v>6.2665600000000019</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <v>539.74224000000015</v>
       </c>
-      <c r="O102">
+      <c r="P102">
         <v>64.209767441860464</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>105</v>
       </c>
@@ -15868,46 +16180,49 @@
         <v>7</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
         <v>1.037118</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>59.010064516129063</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>3.0301512296468078</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>7.3350031999999983</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>720.60208</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>4.250601999999998</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>14.4604344</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <v>4.4680799999999996</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>18.928514400000001</v>
       </c>
-      <c r="M103">
+      <c r="N103">
         <v>8.0998080000000012</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>488.94407999999999</v>
       </c>
-      <c r="O103">
+      <c r="P103">
         <v>84.543125384520735</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>105</v>
       </c>
@@ -15915,46 +16230,49 @@
         <v>7</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104">
         <v>0.90076600000000007</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>57.987612903225823</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>3.0658368362564619</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>6.7230211999999998</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>525.4796799999998</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>5.7906039999999974</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>12.294198</v>
       </c>
-      <c r="K104">
+      <c r="L104">
         <v>3.7823440000000002</v>
       </c>
-      <c r="L104">
+      <c r="M104">
         <v>16.076542</v>
       </c>
-      <c r="M104">
+      <c r="N104">
         <v>6.9349119999999997</v>
       </c>
-      <c r="N104">
+      <c r="O104">
         <v>488.94407999999999</v>
       </c>
-      <c r="O104">
+      <c r="P104">
         <v>70.369698535745044</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -15962,46 +16280,49 @@
         <v>7</v>
       </c>
       <c r="C105">
+        <v>104</v>
+      </c>
+      <c r="D105">
         <v>4</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>0.50875399999999993</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>53.459612903225803</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>2.9468848142242838</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>7.7371628000000001</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>845.95344000000011</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>4.3325169999999984</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>14.7442704</v>
       </c>
-      <c r="K105">
+      <c r="L105">
         <v>4.5833919999999999</v>
       </c>
-      <c r="L105">
+      <c r="M105">
         <v>19.327662400000001</v>
       </c>
-      <c r="M105">
+      <c r="N105">
         <v>8.0993279999999999</v>
       </c>
-      <c r="N105">
+      <c r="O105">
         <v>583.28351999999995</v>
       </c>
-      <c r="O105">
+      <c r="P105">
         <v>84.947537836840169</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -16009,46 +16330,49 @@
         <v>7</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
         <v>0.47466599999999998</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>55.066322580645163</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>2.8993040054114121</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>7.1426659999999993</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>849.5011199999999</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>2.9235789999999979</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>17.278218800000001</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <v>5.2873999999999999</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <v>22.565618799999999</v>
       </c>
-      <c r="M106">
+      <c r="N106">
         <v>9.6255359999999985</v>
       </c>
-      <c r="N106">
+      <c r="O106">
         <v>482.89668000000012</v>
       </c>
-      <c r="O106">
+      <c r="P106">
         <v>100.76473483450231</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -16056,46 +16380,49 @@
         <v>9</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
         <v>0.86667799999999984</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>110.5708387096774</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>3.1609984538822049</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>5.6127109999999991</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>659.10896000000002</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>4.7420919999999969</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>9.8805607999999996</v>
       </c>
-      <c r="K107">
+      <c r="L107">
         <v>2.3994239999999989</v>
       </c>
-      <c r="L107">
+      <c r="M107">
         <v>12.279984799999999</v>
       </c>
-      <c r="M107">
+      <c r="N107">
         <v>5.5689600000000006</v>
       </c>
-      <c r="N107">
+      <c r="O107">
         <v>520.39056000000005</v>
       </c>
-      <c r="O107">
+      <c r="P107">
         <v>55.869602559370001</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>105</v>
       </c>
@@ -16103,46 +16430,49 @@
         <v>9</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
         <v>0.79850199999999982</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>109.2562580645161</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>3.3632168913369078</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>6.9940417999999998</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>715.87184000000002</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>4.6601769999999973</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>10.262598799999999</v>
       </c>
-      <c r="K108">
+      <c r="L108">
         <v>3.003752</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <v>13.2663508</v>
       </c>
-      <c r="M108">
+      <c r="N108">
         <v>5.8366079999999991</v>
       </c>
-      <c r="N108">
+      <c r="O108">
         <v>416.37527999999992</v>
       </c>
-      <c r="O108">
+      <c r="P108">
         <v>63.871947828226901</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>105</v>
       </c>
@@ -16150,46 +16480,49 @@
         <v>9</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
         <v>0.69623799999999991</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>73.908645161290309</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>3.196684060491858</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>7.1863789999999987</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>601.16351999999983</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>5.0697519999999967</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>10.4920332</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <v>3.039623999999999</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <v>13.5316572</v>
       </c>
-      <c r="M109">
+      <c r="N109">
         <v>6.0065920000000022</v>
       </c>
-      <c r="N109">
+      <c r="O109">
         <v>519.18107999999995</v>
       </c>
-      <c r="O109">
+      <c r="P109">
         <v>72.698191214470299</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>105</v>
       </c>
@@ -16197,46 +16530,49 @@
         <v>9</v>
       </c>
       <c r="C110">
+        <v>109</v>
+      </c>
+      <c r="D110">
         <v>4</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>0.64510599999999996</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>63.392000000000003</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>3.1491032516789859</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>6.5831395999999991</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>609.44144000000006</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>4.8731559999999972</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>11.2279728</v>
       </c>
-      <c r="K110">
+      <c r="L110">
         <v>3.2775519999999991</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <v>14.5055248</v>
       </c>
-      <c r="M110">
+      <c r="N110">
         <v>6.3181120000000002</v>
       </c>
-      <c r="N110">
+      <c r="O110">
         <v>481.68720000000002</v>
       </c>
-      <c r="O110">
+      <c r="P110">
         <v>68.939645625692151</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>105</v>
       </c>
@@ -16244,46 +16580,49 @@
         <v>9</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
         <v>0.73032599999999992</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>49.954064516129037</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>3.137208049475769</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>7.177636399999999</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>754.89632000000006</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>5.2827309999999983</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>11.5158048</v>
       </c>
-      <c r="K111">
+      <c r="L111">
         <v>3.391551999999999</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <v>14.907356800000001</v>
       </c>
-      <c r="M111">
+      <c r="N111">
         <v>6.7034240000000009</v>
       </c>
-      <c r="N111">
+      <c r="O111">
         <v>458.70708000000008</v>
       </c>
-      <c r="O111">
+      <c r="P111">
         <v>72.278498831056979</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>105</v>
       </c>
@@ -16291,46 +16630,49 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
         <v>0.44057800000000003</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>83.6949677419355</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>3.0063608252403728</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>6.9678139999999997</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>510.10639999999989</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>5.266347999999998</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>10.857727199999999</v>
       </c>
-      <c r="K112">
+      <c r="L112">
         <v>3.0238079999999989</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <v>13.8815352</v>
       </c>
-      <c r="M112">
+      <c r="N112">
         <v>7.2291840000000001</v>
       </c>
-      <c r="N112">
+      <c r="O112">
         <v>502.24835999999999</v>
       </c>
-      <c r="O112">
+      <c r="P112">
         <v>72.399089454903418</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>105</v>
       </c>
@@ -16338,46 +16680,49 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
         <v>0.49170999999999998</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>69.088516129032243</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>3.1728936560854222</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>5.8050481999999999</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>564.50415999999996</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>4.6765599999999976</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>11.0784184</v>
       </c>
-      <c r="K113">
+      <c r="L113">
         <v>3.1459520000000012</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <v>14.2243704</v>
       </c>
-      <c r="M113">
+      <c r="N113">
         <v>6.4569279999999978</v>
       </c>
-      <c r="N113">
+      <c r="O113">
         <v>452.65967999999998</v>
       </c>
-      <c r="O113">
+      <c r="P113">
         <v>68.073106927525544</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>105</v>
       </c>
@@ -16385,43 +16730,46 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
         <v>0.54284199999999982</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>3.0896272406628982</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>6.801704599999999</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>530.20992000000001</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>4.8567729999999969</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>10.5323888</v>
       </c>
-      <c r="K114">
+      <c r="L114">
         <v>3.0194239999999999</v>
       </c>
-      <c r="L114">
+      <c r="M114">
         <v>13.5518128</v>
       </c>
-      <c r="M114">
+      <c r="N114">
         <v>6.1430400000000001</v>
       </c>
-      <c r="N114">
+      <c r="O114">
         <v>459.91656000000012</v>
       </c>
-      <c r="O114">
+      <c r="P114">
         <v>65.209801894918201</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>105</v>
       </c>
@@ -16429,46 +16777,49 @@
         <v>10</v>
       </c>
       <c r="C115">
+        <v>114</v>
+      </c>
+      <c r="D115">
         <v>4</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>0.6280619999999999</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>120.6492903225807</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>2.9468848142242838</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>7.4399143999999993</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>553.86111999999991</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>5.2991139999999968</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>10.3437456</v>
       </c>
-      <c r="K115">
+      <c r="L115">
         <v>3.02576</v>
       </c>
-      <c r="L115">
+      <c r="M115">
         <v>13.3695056</v>
       </c>
-      <c r="M115">
+      <c r="N115">
         <v>5.9792640000000006</v>
       </c>
-      <c r="N115">
+      <c r="O115">
         <v>459.91656000000012</v>
       </c>
-      <c r="O115">
+      <c r="P115">
         <v>64.352142241909689</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>105</v>
       </c>
@@ -16476,46 +16827,49 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116">
         <v>0.57692999999999994</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>94.357677419354829</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>3.1847888582886399</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>7.3000327999999994</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>603.52864</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>5.1680499999999983</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>11.21278</v>
       </c>
-      <c r="K116">
+      <c r="L116">
         <v>3.2686400000000009</v>
       </c>
-      <c r="L116">
+      <c r="M116">
         <v>14.48142</v>
       </c>
-      <c r="M116">
+      <c r="N116">
         <v>6.42448</v>
       </c>
-      <c r="N116">
+      <c r="O116">
         <v>494.99148000000002</v>
       </c>
-      <c r="O116">
+      <c r="P116">
         <v>68.85260981912144</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>105</v>
       </c>
@@ -16523,46 +16877,49 @@
         <v>8</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
         <v>1.9063619999999999</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>90.121806451612898</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>3.1609984538822049</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>4.3450339999999992</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>469.89935999999989</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>7.1503929999999976</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>8.3654012000000009</v>
       </c>
-      <c r="K117">
+      <c r="L117">
         <v>2.417336000000001</v>
       </c>
-      <c r="L117">
+      <c r="M117">
         <v>10.7827372</v>
       </c>
-      <c r="M117">
+      <c r="N117">
         <v>4.8459840000000014</v>
       </c>
-      <c r="N117">
+      <c r="O117">
         <v>472.01136000000002</v>
       </c>
-      <c r="O117">
+      <c r="P117">
         <v>52.27139657930357</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>105</v>
       </c>
@@ -16570,46 +16927,49 @@
         <v>8</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
         <v>1.8381860000000001</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>85.301677419354817</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>3.3989024979465619</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>5.7088796000000004</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>476.99471999999997</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>4.5291129999999988</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>9.8456679999999999</v>
       </c>
-      <c r="K118">
+      <c r="L118">
         <v>2.8834879999999989</v>
       </c>
-      <c r="L118">
+      <c r="M118">
         <v>12.729156</v>
       </c>
-      <c r="M118">
+      <c r="N118">
         <v>5.6623680000000016</v>
       </c>
-      <c r="N118">
+      <c r="O118">
         <v>445.40280000000013</v>
       </c>
-      <c r="O118">
+      <c r="P118">
         <v>61.580312538452077</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>105</v>
       </c>
@@ -16617,46 +16977,49 @@
         <v>8</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119">
         <v>1.5995699999999999</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>69.380645161290289</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>3.0063608252403728</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>5.8924742000000014</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>441.51791999999989</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>5.3482629999999984</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>9.8456679999999999</v>
       </c>
-      <c r="K119">
+      <c r="L119">
         <v>2.8834879999999989</v>
       </c>
-      <c r="L119">
+      <c r="M119">
         <v>12.729156</v>
       </c>
-      <c r="M119">
+      <c r="N119">
         <v>6.3313280000000027</v>
       </c>
-      <c r="N119">
+      <c r="O119">
         <v>456.28811999999999</v>
       </c>
-      <c r="O119">
+      <c r="P119">
         <v>66.078301956441493</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>105</v>
       </c>
@@ -16664,46 +17027,49 @@
         <v>8</v>
       </c>
       <c r="C120">
+        <v>119</v>
+      </c>
+      <c r="D120">
         <v>4</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>1.8552299999999999</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>60.178580645161283</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>2.9111992076146298</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>5.8312760000000008</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>354.00848000000002</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>4.4144319999999997</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>7.8496147999999986</v>
       </c>
-      <c r="K120">
+      <c r="L120">
         <v>4.8385199999999999</v>
       </c>
-      <c r="L120">
+      <c r="M120">
         <v>12.6881348</v>
       </c>
-      <c r="M120">
+      <c r="N120">
         <v>5.1138559999999993</v>
       </c>
-      <c r="N120">
+      <c r="O120">
         <v>435.72696000000008</v>
       </c>
-      <c r="O120">
+      <c r="P120">
         <v>74.40690291620524</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>105</v>
       </c>
@@ -16711,46 +17077,49 @@
         <v>8</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121">
         <v>1.9745379999999999</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>72.594064516129009</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>2.9706752186307188</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>5.8487611999999993</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>278.32463999999999</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>5.4793269999999978</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>10.939469600000001</v>
       </c>
-      <c r="K121">
+      <c r="L121">
         <v>3.3861759999999999</v>
       </c>
-      <c r="L121">
+      <c r="M121">
         <v>14.3256456</v>
       </c>
-      <c r="M121">
+      <c r="N121">
         <v>6.0521920000000016</v>
       </c>
-      <c r="N121">
+      <c r="O121">
         <v>505.87680000000012</v>
       </c>
-      <c r="O121">
+      <c r="P121">
         <v>67.918754768057084</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>105</v>
       </c>
@@ -16758,46 +17127,49 @@
         <v>6</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
         <v>0.90076600000000007</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>51.852903225806457</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>3.6962825530270091</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>5.7176221999999992</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>717.05439999999999</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>5.8397529999999991</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>15.0040148</v>
       </c>
-      <c r="K122">
+      <c r="L122">
         <v>5.2000719999999987</v>
       </c>
-      <c r="L122">
+      <c r="M122">
         <v>20.204086799999999</v>
       </c>
-      <c r="M122">
+      <c r="N122">
         <v>7.8480960000000017</v>
       </c>
-      <c r="N122">
+      <c r="O122">
         <v>658.27127999999982</v>
       </c>
-      <c r="O122">
+      <c r="P122">
         <v>94.163428079242053</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>105</v>
       </c>
@@ -16805,46 +17177,49 @@
         <v>6</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
         <v>0.593974</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>71.425548387096768</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>3.5654353287916121</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>6.8541601999999999</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>738.34047999999996</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>5.8397529999999991</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>20.625026399999999</v>
       </c>
-      <c r="K123">
+      <c r="L123">
         <v>7.239647999999999</v>
       </c>
-      <c r="L123">
+      <c r="M123">
         <v>27.864674399999998</v>
       </c>
-      <c r="M123">
+      <c r="N123">
         <v>10.404351999999999</v>
       </c>
-      <c r="N123">
+      <c r="O123">
         <v>629.24375999999995</v>
       </c>
-      <c r="O123">
+      <c r="P123">
         <v>129.10074566260619</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>105</v>
       </c>
@@ -16852,46 +17227,49 @@
         <v>6</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
         <v>0.81554599999999999</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>42.796903225806439</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>3.3989024979465619</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>6.0148705999999992</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>871.96975999999995</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>5.1680499999999983</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>22.091247200000002</v>
       </c>
-      <c r="K124">
+      <c r="L124">
         <v>7.6061599999999991</v>
       </c>
-      <c r="L124">
+      <c r="M124">
         <v>29.697407200000001</v>
       </c>
-      <c r="M124">
+      <c r="N124">
         <v>9.4803520000000052</v>
       </c>
-      <c r="N124">
+      <c r="O124">
         <v>630.45323999999994</v>
       </c>
-      <c r="O124">
+      <c r="P124">
         <v>139.7408047249908</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>105</v>
       </c>
@@ -16899,46 +17277,49 @@
         <v>6</v>
       </c>
       <c r="C125">
+        <v>124</v>
+      </c>
+      <c r="D125">
         <v>4</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>0.593974</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>99.908129032258032</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>3.3394264869304719</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>6.4957135999999993</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>674.48223999999982</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>4.807623999999997</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>18.409926800000001</v>
       </c>
-      <c r="K125">
+      <c r="L125">
         <v>6.3753519999999986</v>
       </c>
-      <c r="L125">
+      <c r="M125">
         <v>24.7852788</v>
       </c>
-      <c r="M125">
+      <c r="N125">
         <v>9.4091200000000033</v>
       </c>
-      <c r="N125">
+      <c r="O125">
         <v>690.92723999999987</v>
       </c>
-      <c r="O125">
+      <c r="P125">
         <v>115.0994290636151</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>105</v>
       </c>
@@ -16946,42 +17327,45 @@
         <v>6</v>
       </c>
       <c r="C126">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126">
         <v>0.83259000000000005</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>53.751741935483857</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>3.196684060491858</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>5.4903145999999987</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>603.52864</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>4.9714539999999969</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>19.867920000000002</v>
       </c>
-      <c r="K126">
+      <c r="L126">
         <v>7.0295199999999998</v>
       </c>
-      <c r="L126">
+      <c r="M126">
         <v>26.89744</v>
       </c>
-      <c r="M126">
+      <c r="N126">
         <v>10.319936</v>
       </c>
-      <c r="N126">
+      <c r="O126">
         <v>652.22388000000001</v>
       </c>
-      <c r="O126">
+      <c r="P126">
         <v>125.3932029039006</v>
       </c>
     </row>
@@ -17006,10 +17390,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -18785,13 +19169,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/DATA/tomato-clean.xlsx
+++ b/DATA/tomato-clean.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\OneDrive\Documentos\ProjectTomatodata\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2559A002-9BF9-4AF7-982A-EF7D8914D107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAF6DE6-A5E8-4C76-8E7A-AA6F997CD2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11064,7 +11064,7 @@
   <dimension ref="A1:P126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:P9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DATA/tomato-clean.xlsx
+++ b/DATA/tomato-clean.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\OneDrive\Documentos\ProjectTomatodata\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6941F53B-A0D9-44A5-9395-17B88FE58DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAF6DE6-A5E8-4C76-8E7A-AA6F997CD2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11063,8 +11063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12380,7 +12380,7 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -12430,7 +12430,7 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -12480,7 +12480,7 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -12530,7 +12530,7 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -12580,7 +12580,7 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -12630,7 +12630,7 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -12680,7 +12680,7 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -12730,7 +12730,7 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -12780,7 +12780,7 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -12830,7 +12830,7 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -12880,7 +12880,7 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -12930,7 +12930,7 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -12980,7 +12980,7 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -13030,7 +13030,7 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -13080,7 +13080,7 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -13130,7 +13130,7 @@
         <v>8</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -13180,7 +13180,7 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -13230,7 +13230,7 @@
         <v>8</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -13280,7 +13280,7 @@
         <v>8</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -13330,7 +13330,7 @@
         <v>8</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -13380,7 +13380,7 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -13430,7 +13430,7 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -13480,7 +13480,7 @@
         <v>6</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -13530,7 +13530,7 @@
         <v>6</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -13580,7 +13580,7 @@
         <v>6</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -13630,7 +13630,7 @@
         <v>7</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -13680,7 +13680,7 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -13730,7 +13730,7 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -13780,7 +13780,7 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -13830,7 +13830,7 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -13880,7 +13880,7 @@
         <v>9</v>
       </c>
       <c r="C57">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -13930,7 +13930,7 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -13980,7 +13980,7 @@
         <v>9</v>
       </c>
       <c r="C59">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -14030,7 +14030,7 @@
         <v>9</v>
       </c>
       <c r="C60">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -14080,7 +14080,7 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>5</v>
@@ -14130,7 +14130,7 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -14180,7 +14180,7 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -14230,7 +14230,7 @@
         <v>10</v>
       </c>
       <c r="C64">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -14280,7 +14280,7 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -14330,7 +14330,7 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D66">
         <v>5</v>
@@ -14380,7 +14380,7 @@
         <v>8</v>
       </c>
       <c r="C67">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -14430,7 +14430,7 @@
         <v>8</v>
       </c>
       <c r="C68">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -14480,7 +14480,7 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -14530,7 +14530,7 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -14580,7 +14580,7 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D71">
         <v>5</v>
@@ -14630,7 +14630,7 @@
         <v>6</v>
       </c>
       <c r="C72">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -14680,7 +14680,7 @@
         <v>6</v>
       </c>
       <c r="C73">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -14730,7 +14730,7 @@
         <v>6</v>
       </c>
       <c r="C74">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -14780,7 +14780,7 @@
         <v>6</v>
       </c>
       <c r="C75">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -14830,7 +14830,7 @@
         <v>6</v>
       </c>
       <c r="C76">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -14880,7 +14880,7 @@
         <v>7</v>
       </c>
       <c r="C77">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -14930,7 +14930,7 @@
         <v>7</v>
       </c>
       <c r="C78">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -14980,7 +14980,7 @@
         <v>7</v>
       </c>
       <c r="C79">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -15030,7 +15030,7 @@
         <v>7</v>
       </c>
       <c r="C80">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -15080,7 +15080,7 @@
         <v>7</v>
       </c>
       <c r="C81">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -15130,7 +15130,7 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -15180,7 +15180,7 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -15280,7 +15280,7 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -15330,7 +15330,7 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -15380,7 +15380,7 @@
         <v>10</v>
       </c>
       <c r="C87">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -15430,7 +15430,7 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -15480,7 +15480,7 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -15530,7 +15530,7 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -15580,7 +15580,7 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -15630,7 +15630,7 @@
         <v>8</v>
       </c>
       <c r="C92">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -15680,7 +15680,7 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -15730,7 +15730,7 @@
         <v>8</v>
       </c>
       <c r="C94">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -15780,7 +15780,7 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -15830,7 +15830,7 @@
         <v>8</v>
       </c>
       <c r="C96">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -15880,7 +15880,7 @@
         <v>6</v>
       </c>
       <c r="C97">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -15930,7 +15930,7 @@
         <v>6</v>
       </c>
       <c r="C98">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -15980,7 +15980,7 @@
         <v>6</v>
       </c>
       <c r="C99">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -16030,7 +16030,7 @@
         <v>6</v>
       </c>
       <c r="C100">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D100">
         <v>4</v>
@@ -16080,7 +16080,7 @@
         <v>6</v>
       </c>
       <c r="C101">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -16130,7 +16130,7 @@
         <v>7</v>
       </c>
       <c r="C102">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -16180,7 +16180,7 @@
         <v>7</v>
       </c>
       <c r="C103">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -16230,7 +16230,7 @@
         <v>7</v>
       </c>
       <c r="C104">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -16280,7 +16280,7 @@
         <v>7</v>
       </c>
       <c r="C105">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="D105">
         <v>4</v>
@@ -16330,7 +16330,7 @@
         <v>7</v>
       </c>
       <c r="C106">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -16380,7 +16380,7 @@
         <v>9</v>
       </c>
       <c r="C107">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -16430,7 +16430,7 @@
         <v>9</v>
       </c>
       <c r="C108">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -16480,7 +16480,7 @@
         <v>9</v>
       </c>
       <c r="C109">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -16530,7 +16530,7 @@
         <v>9</v>
       </c>
       <c r="C110">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -16580,7 +16580,7 @@
         <v>9</v>
       </c>
       <c r="C111">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -16630,7 +16630,7 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -16680,7 +16680,7 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -16730,7 +16730,7 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -16777,7 +16777,7 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="D115">
         <v>4</v>
@@ -16827,7 +16827,7 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="D116">
         <v>5</v>
@@ -16877,7 +16877,7 @@
         <v>8</v>
       </c>
       <c r="C117">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -16927,7 +16927,7 @@
         <v>8</v>
       </c>
       <c r="C118">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -16977,7 +16977,7 @@
         <v>8</v>
       </c>
       <c r="C119">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -17027,7 +17027,7 @@
         <v>8</v>
       </c>
       <c r="C120">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="D120">
         <v>4</v>
@@ -17077,7 +17077,7 @@
         <v>8</v>
       </c>
       <c r="C121">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D121">
         <v>5</v>
@@ -17127,7 +17127,7 @@
         <v>6</v>
       </c>
       <c r="C122">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -17177,7 +17177,7 @@
         <v>6</v>
       </c>
       <c r="C123">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -17227,7 +17227,7 @@
         <v>6</v>
       </c>
       <c r="C124">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -17277,7 +17277,7 @@
         <v>6</v>
       </c>
       <c r="C125">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -17327,7 +17327,7 @@
         <v>6</v>
       </c>
       <c r="C126">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D126">
         <v>5</v>
